--- a/PythonWorkPlace/spider/spidertest/图灵爬虫学习/tianmao.com/省份.xlsx
+++ b/PythonWorkPlace/spider/spidertest/图灵爬虫学习/tianmao.com/省份.xlsx
@@ -83,7 +83,7 @@
     <t>黑龙江</t>
   </si>
   <si>
-    <t>内蒙</t>
+    <t>内蒙古</t>
   </si>
   <si>
     <t>山东</t>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1"/>
